--- a/xlsx/宋_intext.xlsx
+++ b/xlsx/宋_intext.xlsx
@@ -29,13 +29,13 @@
     <t>宋国</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_宋</t>
+    <t>政策_政策_货币政策_宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%AE%8B</t>
   </si>
   <si>
-    <t>劉宋</t>
+    <t>刘宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%9C%9D</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%A3%BD%E8%BC%9D</t>
   </si>
   <si>
-    <t>徐壽輝</t>
+    <t>徐寿辉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%AE%8B</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BF%E5%BA%A6</t>
   </si>
   <si>
-    <t>響度</t>
+    <t>响度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B_(%E6%98%9F)</t>

--- a/xlsx/宋_intext.xlsx
+++ b/xlsx/宋_intext.xlsx
@@ -29,7 +29,7 @@
     <t>宋国</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_宋</t>
+    <t>体育运动_体育运动_宦官_宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%AE%8B</t>
